--- a/spotcheck.xlsx
+++ b/spotcheck.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,78 @@
   </si>
   <si>
     <t>LINE SPEED</t>
+  </si>
+  <si>
+    <t>18 February 2019</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>Murnee Nima</t>
+  </si>
+  <si>
+    <t>4:37 PM</t>
+  </si>
+  <si>
+    <t>SF1</t>
+  </si>
+  <si>
+    <t>PPFT-CW48</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.2-0.3</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>5:09 PM</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>5:30 PM</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>+0.2</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>+1</t>
   </si>
 </sst>
 </file>
@@ -93,7 +165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -143,6 +215,138 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
